--- a/data/trans_orig/P39A4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A4_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D132EAC-68DD-4B40-B54F-3098AE39BA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7E6AB40-D6D0-4904-8267-DB6DC2B5242B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E0FB00D9-3BDB-4A59-8C92-3B48A36C78F3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9864CB26-4907-41E7-B1D3-14F1C84281F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="120">
   <si>
     <t>Población según si diría que estar con dolor o malestar en los brazos o en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,49%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>91,77%</t>
   </si>
   <si>
-    <t>80,68%</t>
+    <t>79,37%</t>
   </si>
   <si>
     <t>96,48%</t>
@@ -83,19 +83,19 @@
     <t>93,74%</t>
   </si>
   <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>92,86%</t>
   </si>
   <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>3,52%</t>
   </si>
   <si>
-    <t>19,32%</t>
+    <t>20,63%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,274 +137,262 @@
     <t>96,51%</t>
   </si>
   <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
   </si>
   <si>
     <t>93,83%</t>
   </si>
   <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
     <t>91,85%</t>
   </si>
   <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746DF1A6-32DE-4EBC-AC56-022AB161A6B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9DAE38-ECB9-4B5C-9265-31308C4DDF81}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1286,10 +1274,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1304,13 +1292,13 @@
         <v>68862</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>99</v>
@@ -1319,13 +1307,13 @@
         <v>65799</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>162</v>
@@ -1334,13 +1322,13 @@
         <v>134660</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,7 +1384,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1408,13 +1396,13 @@
         <v>629847</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>913</v>
@@ -1423,13 +1411,13 @@
         <v>769932</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1495</v>
@@ -1438,13 +1426,13 @@
         <v>1399778</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,13 +1447,13 @@
         <v>67953</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>85</v>
@@ -1474,13 +1462,13 @@
         <v>52206</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>152</v>
@@ -1489,13 +1477,13 @@
         <v>120159</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,7 +1539,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1563,13 +1551,13 @@
         <v>829838</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>1331</v>
@@ -1578,13 +1566,13 @@
         <v>973734</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>2187</v>
@@ -1593,13 +1581,13 @@
         <v>1803573</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1602,13 @@
         <v>70563</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -1629,13 +1617,13 @@
         <v>93323</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>185</v>
@@ -1644,13 +1632,13 @@
         <v>163885</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1706,13 @@
         <v>2913775</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>4601</v>
@@ -1733,13 +1721,13 @@
         <v>3284536</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>7492</v>
@@ -1748,13 +1736,13 @@
         <v>6198311</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1757,13 @@
         <v>232313</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>358</v>
@@ -1784,13 +1772,13 @@
         <v>252022</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>594</v>
@@ -1799,13 +1787,13 @@
         <v>484334</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,7 +1849,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A4_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7E6AB40-D6D0-4904-8267-DB6DC2B5242B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EEB38F8-5459-4411-9AC2-0C3868D51607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9864CB26-4907-41E7-B1D3-14F1C84281F5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD39FA7A-A366-40A6-9EFD-E8503078EB01}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>96,51%</t>
@@ -188,7 +188,7 @@
     <t>6,24%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>92,84%</t>
@@ -239,7 +239,7 @@
     <t>5,76%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>90,26%</t>
@@ -807,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9DAE38-ECB9-4B5C-9265-31308C4DDF81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582F3223-8260-4227-B5B4-68AB71573C02}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A4_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EEB38F8-5459-4411-9AC2-0C3868D51607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{976D2477-B425-470D-996D-DEB2B75858FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD39FA7A-A366-40A6-9EFD-E8503078EB01}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{525E6EED-72FF-4D69-8776-5A0EB98E64E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Población según si diría que estar con dolor o malestar en los brazos o en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,49%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>91,77%</t>
   </si>
   <si>
-    <t>79,37%</t>
+    <t>80,68%</t>
   </si>
   <si>
     <t>96,48%</t>
@@ -83,19 +83,19 @@
     <t>93,74%</t>
   </si>
   <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>92,86%</t>
   </si>
   <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>3,52%</t>
   </si>
   <si>
-    <t>20,63%</t>
+    <t>19,32%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>96,51%</t>
   </si>
   <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>93,83%</t>
   </si>
   <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>95,11%</t>
   </si>
   <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,49 +194,55 @@
     <t>92,84%</t>
   </si>
   <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>93,35%</t>
   </si>
   <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>93,1%</t>
   </si>
   <si>
-    <t>94,24%</t>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>5,76%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -245,154 +251,160 @@
     <t>90,26%</t>
   </si>
   <si>
-    <t>87,13%</t>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
   </si>
   <si>
     <t>92,62%</t>
   </si>
   <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
     <t>8,52%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>8,66%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -807,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582F3223-8260-4227-B5B4-68AB71573C02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C45D51B-06FF-4F85-B744-46AA6734C5EA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1274,10 +1286,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1292,13 +1304,13 @@
         <v>68862</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>99</v>
@@ -1307,13 +1319,13 @@
         <v>65799</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>162</v>
@@ -1322,13 +1334,13 @@
         <v>134660</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1384,7 +1396,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1396,13 +1408,13 @@
         <v>629847</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>913</v>
@@ -1411,13 +1423,13 @@
         <v>769932</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1495</v>
@@ -1426,13 +1438,13 @@
         <v>1399778</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,13 +1459,13 @@
         <v>67953</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>85</v>
@@ -1462,13 +1474,13 @@
         <v>52206</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>152</v>
@@ -1477,13 +1489,13 @@
         <v>120159</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1539,7 +1551,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1551,13 +1563,13 @@
         <v>829838</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>1331</v>
@@ -1566,13 +1578,13 @@
         <v>973734</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>2187</v>
@@ -1581,13 +1593,13 @@
         <v>1803573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,13 +1614,13 @@
         <v>70563</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -1617,13 +1629,13 @@
         <v>93323</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>185</v>
@@ -1632,13 +1644,13 @@
         <v>163885</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,13 +1718,13 @@
         <v>2913775</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>4601</v>
@@ -1721,13 +1733,13 @@
         <v>3284536</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>7492</v>
@@ -1736,13 +1748,13 @@
         <v>6198311</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,13 +1769,13 @@
         <v>232313</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>358</v>
@@ -1772,13 +1784,13 @@
         <v>252022</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>594</v>
@@ -1787,13 +1799,13 @@
         <v>484334</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39A4_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{976D2477-B425-470D-996D-DEB2B75858FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{735881BE-1363-4144-B177-88E1061EAD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{525E6EED-72FF-4D69-8776-5A0EB98E64E6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{44605305-585C-4186-8BE1-790FD2145A87}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según si diría que estar con dolor o malestar en los brazos o en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,49%)</t>
   </si>
@@ -65,346 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
   </si>
   <si>
     <t>92,86%</t>
   </si>
   <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C45D51B-06FF-4F85-B744-46AA6734C5EA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B326F2B6-70FC-4A88-B5B9-0A42B040B1C7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -937,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>98</v>
+        <v>628</v>
       </c>
       <c r="D4" s="7">
-        <v>86114</v>
+        <v>546183</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>206</v>
+        <v>1047</v>
       </c>
       <c r="I4" s="7">
-        <v>110006</v>
+        <v>576221</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>304</v>
+        <v>1675</v>
       </c>
       <c r="N4" s="7">
-        <v>196120</v>
+        <v>1122404</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>7724</v>
+        <v>27193</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I5" s="7">
-        <v>7346</v>
+        <v>39534</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="N5" s="7">
-        <v>15070</v>
+        <v>66727</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>106</v>
+        <v>659</v>
       </c>
       <c r="D6" s="7">
-        <v>93838</v>
+        <v>573376</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1054,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>216</v>
+        <v>1111</v>
       </c>
       <c r="I6" s="7">
-        <v>117352</v>
+        <v>615755</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1069,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>322</v>
+        <v>1770</v>
       </c>
       <c r="N6" s="7">
-        <v>211190</v>
+        <v>1189131</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1092,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>530</v>
+        <v>825</v>
       </c>
       <c r="D7" s="7">
-        <v>475729</v>
+        <v>1053465</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1107,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>841</v>
+        <v>1310</v>
       </c>
       <c r="I7" s="7">
-        <v>507312</v>
+        <v>834674</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1122,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>1371</v>
+        <v>2135</v>
       </c>
       <c r="N7" s="7">
-        <v>983042</v>
+        <v>1888139</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1143,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D8" s="7">
-        <v>17211</v>
+        <v>67877</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1158,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="I8" s="7">
-        <v>33348</v>
+        <v>61152</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1173,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="N8" s="7">
-        <v>50559</v>
+        <v>129029</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1194,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>553</v>
+        <v>888</v>
       </c>
       <c r="D9" s="7">
-        <v>492940</v>
+        <v>1121342</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1209,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>895</v>
+        <v>1409</v>
       </c>
       <c r="I9" s="7">
-        <v>540660</v>
+        <v>895826</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1448</v>
+        <v>2297</v>
       </c>
       <c r="N9" s="7">
-        <v>1033601</v>
+        <v>2017168</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1247,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>825</v>
+        <v>582</v>
       </c>
       <c r="D10" s="7">
-        <v>892246</v>
+        <v>608852</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1262,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>1310</v>
+        <v>913</v>
       </c>
       <c r="I10" s="7">
-        <v>923551</v>
+        <v>812375</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1277,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>2135</v>
+        <v>1495</v>
       </c>
       <c r="N10" s="7">
-        <v>1815799</v>
+        <v>1421227</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1298,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7">
-        <v>68862</v>
+        <v>68420</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1313,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I11" s="7">
-        <v>65799</v>
+        <v>49006</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1328,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="N11" s="7">
-        <v>134660</v>
+        <v>117425</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1349,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>888</v>
+        <v>649</v>
       </c>
       <c r="D12" s="7">
-        <v>961108</v>
+        <v>677272</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1364,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1409</v>
+        <v>998</v>
       </c>
       <c r="I12" s="7">
-        <v>989350</v>
+        <v>861381</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2297</v>
+        <v>1647</v>
       </c>
       <c r="N12" s="7">
-        <v>1950459</v>
+        <v>1538652</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1402,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>582</v>
+        <v>856</v>
       </c>
       <c r="D13" s="7">
-        <v>629847</v>
+        <v>799755</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1417,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>913</v>
+        <v>1331</v>
       </c>
       <c r="I13" s="7">
-        <v>769932</v>
+        <v>881795</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1432,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1495</v>
+        <v>2187</v>
       </c>
       <c r="N13" s="7">
-        <v>1399778</v>
+        <v>1681550</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1453,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D14" s="7">
-        <v>67953</v>
+        <v>67829</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1468,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="I14" s="7">
-        <v>52206</v>
+        <v>140292</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1483,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="N14" s="7">
-        <v>120159</v>
+        <v>208121</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1504,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>649</v>
+        <v>931</v>
       </c>
       <c r="D15" s="7">
-        <v>697800</v>
+        <v>867584</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1519,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>998</v>
+        <v>1441</v>
       </c>
       <c r="I15" s="7">
-        <v>822138</v>
+        <v>1022087</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1647</v>
+        <v>2372</v>
       </c>
       <c r="N15" s="7">
-        <v>1519937</v>
+        <v>1889671</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1551,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>856</v>
+        <v>2891</v>
       </c>
       <c r="D16" s="7">
-        <v>829838</v>
+        <v>3008256</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>4601</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3105063</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>1331</v>
-      </c>
-      <c r="I16" s="7">
-        <v>973734</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>7492</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6113319</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>2187</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1803573</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="D17" s="7">
-        <v>70563</v>
+        <v>231318</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>358</v>
+      </c>
+      <c r="I17" s="7">
+        <v>289985</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>110</v>
-      </c>
-      <c r="I17" s="7">
-        <v>93323</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>594</v>
+      </c>
+      <c r="N17" s="7">
+        <v>521303</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>185</v>
-      </c>
-      <c r="N17" s="7">
-        <v>163885</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>931</v>
+        <v>3127</v>
       </c>
       <c r="D18" s="7">
-        <v>900401</v>
+        <v>3239574</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1441</v>
+        <v>4959</v>
       </c>
       <c r="I18" s="7">
-        <v>1067057</v>
+        <v>3395048</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2372</v>
+        <v>8086</v>
       </c>
       <c r="N18" s="7">
-        <v>1967458</v>
+        <v>6634622</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1705,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2891</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2913775</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4601</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3284536</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7492</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6198311</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>236</v>
-      </c>
-      <c r="D20" s="7">
-        <v>232313</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>358</v>
-      </c>
-      <c r="I20" s="7">
-        <v>252022</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>594</v>
-      </c>
-      <c r="N20" s="7">
-        <v>484334</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3127</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3146088</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>4959</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3536558</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8086</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6682645</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
